--- a/biology/Zoologie/Hemidactylus_platyurus/Hemidactylus_platyurus.xlsx
+++ b/biology/Zoologie/Hemidactylus_platyurus/Hemidactylus_platyurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus platyurus est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus platyurus est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Inde, au Népal, au Bhoutan, au Bangladesh, en Birmanie, au Thaïlande, au Laos, au Cambodge, au Viêt Nam, dans le sud de la Chine, aux Philippines, en Malaisie, à Singapour, en Indonésie, au Timor oriental et en Papouasie-Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Inde, au Népal, au Bhoutan, au Bangladesh, en Birmanie, au Thaïlande, au Laos, au Cambodge, au Viêt Nam, dans le sud de la Chine, aux Philippines, en Malaisie, à Singapour, en Indonésie, au Timor oriental et en Papouasie-Nouvelle-Guinée.
 Sa présence est incertaine à Taïwan.
-Elle a été introduite en Floride aux États-Unis[2].
+Elle a été introduite en Floride aux États-Unis.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko arboricole, nocturne et insectivore. Il mesure jusqu'à 140 mm.
 </t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Schneider, 1797 : Amphibiorum Physiologiae Specimen Alterum Historiam et Species Generis Stellionum seu Geckonum Sistens. Traiecti ad Viadrum. Frankfurt an der Oder, C. L. F. Aitzi, vol. 2, p. 1-54.</t>
         </is>
